--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -1832,10 +1832,36 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x]:rateRatio</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
+</t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤の容量</t>
+  </si>
+  <si>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]:rateQuantity</t>
@@ -2178,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2215,7 +2241,7 @@
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -13986,7 +14012,7 @@
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>97</v>
+        <v>575</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>569</v>
@@ -14007,13 +14033,13 @@
         <v>38</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>38</v>
@@ -14021,13 +14047,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>569</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>38</v>
@@ -14049,16 +14075,16 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14120,19 +14146,19 @@
         <v>105</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>568</v>
+        <v>91</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>38</v>
@@ -14140,12 +14166,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>38</v>
       </c>
@@ -14154,7 +14182,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>38</v>
@@ -14166,16 +14194,16 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14225,33 +14253,150 @@
         <v>38</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AI103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
+      <c r="H104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO103" t="s" s="2">
+      <c r="AK104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>38</v>
       </c>
     </row>
